--- a/data/n2v/tables/model-1200-1325-20230828-62.xlsx
+++ b/data/n2v/tables/model-1200-1325-20230828-62.xlsx
@@ -1810,7 +1810,7 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -1828,7 +1828,7 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -2494,7 +2494,7 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -2980,7 +2980,7 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -3034,7 +3034,7 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -3124,7 +3124,7 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -3304,7 +3304,7 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -3574,7 +3574,7 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -3610,7 +3610,7 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -3664,7 +3664,7 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -3682,7 +3682,7 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -3718,7 +3718,7 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -3754,7 +3754,7 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -3772,7 +3772,7 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -3862,7 +3862,7 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -3880,7 +3880,7 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -3934,7 +3934,7 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -3952,7 +3952,7 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -3970,7 +3970,7 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -4006,7 +4006,7 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -4042,7 +4042,7 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -4060,7 +4060,7 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="C206" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -4294,7 +4294,7 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -4312,7 +4312,7 @@
         </is>
       </c>
       <c r="C216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -4330,7 +4330,7 @@
         </is>
       </c>
       <c r="C217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -4420,7 +4420,7 @@
         </is>
       </c>
       <c r="C222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -4582,7 +4582,7 @@
         </is>
       </c>
       <c r="C231" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -4618,7 +4618,7 @@
         </is>
       </c>
       <c r="C233" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -4636,7 +4636,7 @@
         </is>
       </c>
       <c r="C234" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -4672,7 +4672,7 @@
         </is>
       </c>
       <c r="C236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -4780,7 +4780,7 @@
         </is>
       </c>
       <c r="C242" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -4834,7 +4834,7 @@
         </is>
       </c>
       <c r="C245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -4852,7 +4852,7 @@
         </is>
       </c>
       <c r="C246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -4870,7 +4870,7 @@
         </is>
       </c>
       <c r="C247" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -5014,7 +5014,7 @@
         </is>
       </c>
       <c r="C255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -5050,7 +5050,7 @@
         </is>
       </c>
       <c r="C257" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -5104,7 +5104,7 @@
         </is>
       </c>
       <c r="C260" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -5140,7 +5140,7 @@
         </is>
       </c>
       <c r="C262" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -5158,7 +5158,7 @@
         </is>
       </c>
       <c r="C263" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -5230,7 +5230,7 @@
         </is>
       </c>
       <c r="C267" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         </is>
       </c>
       <c r="C269" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -5338,7 +5338,7 @@
         </is>
       </c>
       <c r="C273" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -5374,7 +5374,7 @@
         </is>
       </c>
       <c r="C275" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -5410,7 +5410,7 @@
         </is>
       </c>
       <c r="C277" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -5482,7 +5482,7 @@
         </is>
       </c>
       <c r="C281" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -5518,7 +5518,7 @@
         </is>
       </c>
       <c r="C283" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -5536,7 +5536,7 @@
         </is>
       </c>
       <c r="C284" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -5644,7 +5644,7 @@
         </is>
       </c>
       <c r="C290" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -5698,7 +5698,7 @@
         </is>
       </c>
       <c r="C293" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -5734,7 +5734,7 @@
         </is>
       </c>
       <c r="C295" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         </is>
       </c>
       <c r="C296" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -5770,7 +5770,7 @@
         </is>
       </c>
       <c r="C297" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -5824,7 +5824,7 @@
         </is>
       </c>
       <c r="C300" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="C304" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -5950,7 +5950,7 @@
         </is>
       </c>
       <c r="C307" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -5986,7 +5986,7 @@
         </is>
       </c>
       <c r="C309" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -6040,7 +6040,7 @@
         </is>
       </c>
       <c r="C312" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -6058,7 +6058,7 @@
         </is>
       </c>
       <c r="C313" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -6076,7 +6076,7 @@
         </is>
       </c>
       <c r="C314" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -6112,7 +6112,7 @@
         </is>
       </c>
       <c r="C316" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -6130,7 +6130,7 @@
         </is>
       </c>
       <c r="C317" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -6148,7 +6148,7 @@
         </is>
       </c>
       <c r="C318" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -6166,7 +6166,7 @@
         </is>
       </c>
       <c r="C319" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         </is>
       </c>
       <c r="C320" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="C321" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -6220,7 +6220,7 @@
         </is>
       </c>
       <c r="C322" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -6238,7 +6238,7 @@
         </is>
       </c>
       <c r="C323" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -6274,7 +6274,7 @@
         </is>
       </c>
       <c r="C325" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -6292,7 +6292,7 @@
         </is>
       </c>
       <c r="C326" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="C329" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -6382,7 +6382,7 @@
         </is>
       </c>
       <c r="C331" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -6454,7 +6454,7 @@
         </is>
       </c>
       <c r="C335" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -6472,7 +6472,7 @@
         </is>
       </c>
       <c r="C336" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -6490,7 +6490,7 @@
         </is>
       </c>
       <c r="C337" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -6508,7 +6508,7 @@
         </is>
       </c>
       <c r="C338" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -6526,7 +6526,7 @@
         </is>
       </c>
       <c r="C339" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -6544,7 +6544,7 @@
         </is>
       </c>
       <c r="C340" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -6598,7 +6598,7 @@
         </is>
       </c>
       <c r="C343" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -6634,7 +6634,7 @@
         </is>
       </c>
       <c r="C345" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -6670,7 +6670,7 @@
         </is>
       </c>
       <c r="C347" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -6742,7 +6742,7 @@
         </is>
       </c>
       <c r="C351" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -6760,7 +6760,7 @@
         </is>
       </c>
       <c r="C352" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -6778,7 +6778,7 @@
         </is>
       </c>
       <c r="C353" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="C354" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -6832,7 +6832,7 @@
         </is>
       </c>
       <c r="C356" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -6868,7 +6868,7 @@
         </is>
       </c>
       <c r="C358" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -6886,7 +6886,7 @@
         </is>
       </c>
       <c r="C359" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -6958,7 +6958,7 @@
         </is>
       </c>
       <c r="C363" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -7030,7 +7030,7 @@
         </is>
       </c>
       <c r="C367" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -7048,7 +7048,7 @@
         </is>
       </c>
       <c r="C368" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -7120,7 +7120,7 @@
         </is>
       </c>
       <c r="C372" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -7192,7 +7192,7 @@
         </is>
       </c>
       <c r="C376" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -7228,7 +7228,7 @@
         </is>
       </c>
       <c r="C378" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="C379" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -7282,7 +7282,7 @@
         </is>
       </c>
       <c r="C381" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -7354,7 +7354,7 @@
         </is>
       </c>
       <c r="C385" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -7408,7 +7408,7 @@
         </is>
       </c>
       <c r="C388" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -7426,7 +7426,7 @@
         </is>
       </c>
       <c r="C389" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -7498,7 +7498,7 @@
         </is>
       </c>
       <c r="C393" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -7516,7 +7516,7 @@
         </is>
       </c>
       <c r="C394" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -7534,7 +7534,7 @@
         </is>
       </c>
       <c r="C395" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -7552,7 +7552,7 @@
         </is>
       </c>
       <c r="C396" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -7570,7 +7570,7 @@
         </is>
       </c>
       <c r="C397" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -7588,7 +7588,7 @@
         </is>
       </c>
       <c r="C398" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -7624,7 +7624,7 @@
         </is>
       </c>
       <c r="C400" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -7660,7 +7660,7 @@
         </is>
       </c>
       <c r="C402" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="C404" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -7714,7 +7714,7 @@
         </is>
       </c>
       <c r="C405" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -7750,7 +7750,7 @@
         </is>
       </c>
       <c r="C407" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -7768,7 +7768,7 @@
         </is>
       </c>
       <c r="C408" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -7804,7 +7804,7 @@
         </is>
       </c>
       <c r="C410" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -7822,7 +7822,7 @@
         </is>
       </c>
       <c r="C411" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -7840,7 +7840,7 @@
         </is>
       </c>
       <c r="C412" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -7876,7 +7876,7 @@
         </is>
       </c>
       <c r="C414" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -7912,7 +7912,7 @@
         </is>
       </c>
       <c r="C416" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -7930,7 +7930,7 @@
         </is>
       </c>
       <c r="C417" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -7984,7 +7984,7 @@
         </is>
       </c>
       <c r="C420" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -8074,7 +8074,7 @@
         </is>
       </c>
       <c r="C425" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -8200,7 +8200,7 @@
         </is>
       </c>
       <c r="C432" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -8308,7 +8308,7 @@
         </is>
       </c>
       <c r="C438" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -8362,7 +8362,7 @@
         </is>
       </c>
       <c r="C441" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -8794,7 +8794,7 @@
         </is>
       </c>
       <c r="C465" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
